--- a/content/docs/2022-04-19-phd/pdh_timeline.xlsx
+++ b/content/docs/2022-04-19-phd/pdh_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maltehueckstaedt/Documents/Dokumente/GitHub/blogdown_chernoff_faces/content/docs/2022-04-19-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDA365-B767-064C-A5C6-ADABE9152BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E7870-A842-F443-9419-C31499434356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{E5E52C39-CBAC-1445-8724-88C576970A9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="26900" xr2:uid="{E5E52C39-CBAC-1445-8724-88C576970A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
